--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahris\Documents\DAA\DAAProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahris\Documents\DAA\Project\git\DAAProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{275D2869-046A-4D4E-9568-F6DBBD30F5B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03FE5E3-FDBB-48F5-A577-84464E3A81B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15270" xr2:uid="{28BE0B58-1D1E-4DE6-B38D-4F9B3C1EEF85}"/>
+    <workbookView xWindow="-25320" yWindow="450" windowWidth="25440" windowHeight="15270" xr2:uid="{28BE0B58-1D1E-4DE6-B38D-4F9B3C1EEF85}"/>
   </bookViews>
   <sheets>
     <sheet name="output (2)" sheetId="3" r:id="rId1"/>
@@ -141,6 +141,3703 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t> Taken</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'output (2)'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GreedyTimeTaken</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'output (2)'!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'output (2)'!$C$2:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0022392272949218E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9394836425781246E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.595949172973633E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.59912109375E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.5947570800781252E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8101921081542967E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1892547607421874E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7872562408447266E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.2065410614013673E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0085563659667967E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0067214965820311E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.2078762054443359E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3967037200927734E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5995502471923828E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.400136947631836E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4078140258789063E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.0793418884277344E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0413398742675782E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4001121520996092E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EB1F-4C92-B58A-3381FB396446}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'output (2)'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> DPTimeTaken</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'output (2)'!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'output (2)'!$E$2:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>2.9997825622558594E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.079199457168579</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2632006645202636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.74901041984558103</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2918103694915772</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0812127113342287</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30681090354919432</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.7508087635040281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.63460106849670406</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0032126903533936</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6334110260009767</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8062034130096436</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9738023757934569</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7504008293151854</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.19560704231262208</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.56680536270141602</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.2962116241455077</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.14521303176879882</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.53920321464538579</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.21200313568115234</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3807878494262697E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>6.3406610488891596E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EB1F-4C92-B58A-3381FB396446}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1729307248"/>
+        <c:axId val="1729318064"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'output (2)'!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GreedyAnswer</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'output (2)'!$A$2:$A$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'output (2)'!$B$2:$B$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0">
+                        <c:v>4806</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9890</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>575</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5500</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4643</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8627</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9813</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8458</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1667</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>6858</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3317</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4736</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>9069</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>7101</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2016</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2741</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>6524</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>845</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2920</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2886</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2705</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>216</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-EB1F-4C92-B58A-3381FB396446}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="2"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'output (2)'!$D$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>DPAnswer</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'output (2)'!$A$2:$A$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'output (2)'!$D$2:$D$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0">
+                        <c:v>4806</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9890</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>575</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5509</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4646</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8631</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9910</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8459</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1684</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>6860</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3318</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4736</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>9070</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>7119</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2742</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>6529</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>847</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2922</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2900</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2744</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>216</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-EB1F-4C92-B58A-3381FB396446}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'output (2)'!$F$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v> Maximum Capacity</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'output (2)'!$A$2:$A$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'output (2)'!$F$2:$F$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0">
+                        <c:v>5584</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>9916</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2969</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5509</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4646</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>8631</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9910</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8459</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1684</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>6860</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>3318</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>4736</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>9070</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>7119</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2017</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2742</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>6529</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>847</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2922</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2900</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2744</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>244</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-EB1F-4C92-B58A-3381FB396446}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1729307248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729318064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1729318064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729307248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="0"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+      </c:legendEntry>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="104"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="4"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
+              </a:rPr>
+              <a:t>Correctness</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'output (2)'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GreedyAnswer</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:shade val="53000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'output (2)'!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'output (2)'!$B$2:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>4806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9890</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4643</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8627</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9813</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8458</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1667</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6858</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3317</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4736</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9069</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2741</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6524</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2920</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2886</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2705</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>216</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2702-4DBF-A56F-8B8DDD19E7F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'output (2)'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DPAnswer</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'output (2)'!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'output (2)'!$D$2:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>4806</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9890</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>575</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4646</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8631</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9910</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8459</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6860</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3318</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4736</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9070</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7119</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2742</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6529</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2744</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>216</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2702-4DBF-A56F-8B8DDD19E7F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'output (2)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> Maximum Capacity</c:v>
+                </c:pt>
+              </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:tint val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'output (2)'!$A$2:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'output (2)'!$F$2:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>5584</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9916</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2969</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4646</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8631</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9910</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8459</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1684</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6860</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3318</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4736</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9070</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7119</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2742</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6529</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2922</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2744</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>244</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-2702-4DBF-A56F-8B8DDD19E7F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1729307248"/>
+        <c:axId val="1729318064"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'output (2)'!$C$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>GreedyTimeTaken</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:shade val="76000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'output (2)'!$A$2:$A$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'output (2)'!$C$2:$C$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.0022392272949218E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>5.9394836425781246E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.595949172973633E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.59912109375E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.5947570800781252E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.8101921081542967E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.1892547607421874E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.7872562408447266E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.2065410614013673E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>3.0085563659667967E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.0067214965820311E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.2078762054443359E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.3967037200927734E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.5995502471923828E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.400136947631836E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.4078140258789063E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>4.0793418884277344E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2.0413398742675782E-4</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2.4001121520996092E-3</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-2702-4DBF-A56F-8B8DDD19E7F1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'output (2)'!$E$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v> DPTimeTaken</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="28575" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:tint val="77000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'output (2)'!$A$2:$A$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'output (2)'!$E$2:$E$23</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="22"/>
+                      <c:pt idx="0">
+                        <c:v>2.9997825622558594E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>3.079199457168579</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.2632006645202636</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.74901041984558103</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.2918103694915772</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>3.0812127113342287</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.30681090354919432</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>4.7508087635040281</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.63460106849670406</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>3.0032126903533936</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.6334110260009767</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.8062034130096436</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>5.9738023757934569</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.7504008293151854</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.19560704231262208</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.56680536270141602</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.2962116241455077</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.14521303176879882</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.53920321464538579</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.21200313568115234</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>5.3807878494262697E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>6.3406610488891596E-2</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-2702-4DBF-A56F-8B8DDD19E7F1}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1729307248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729318064"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1729318064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Montserrat" pitchFamily="2" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-PK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1729307248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-PK"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-PK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="15">
+  <a:schemeClr val="accent2"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{601CC370-1107-2400-8E3D-9DAF2E2336CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAA35FE3-ADD4-40EF-B1F8-E5E55036DF8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -475,7 +4172,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1020,8 +4717,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
